--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Tdgf1-Acvr1b.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Tdgf1-Acvr1b.xlsx
@@ -76,25 +76,25 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
+    <t>Tdgf1</t>
+  </si>
+  <si>
+    <t>Acvr1b</t>
+  </si>
+  <si>
+    <t>FAPs</t>
+  </si>
+  <si>
+    <t>Inflammatory-Mac</t>
+  </si>
+  <si>
+    <t>MuSCs</t>
+  </si>
+  <si>
     <t>Resolving-Mac</t>
-  </si>
-  <si>
-    <t>Tdgf1</t>
-  </si>
-  <si>
-    <t>Acvr1b</t>
-  </si>
-  <si>
-    <t>ECs</t>
-  </si>
-  <si>
-    <t>FAPs</t>
-  </si>
-  <si>
-    <t>Inflammatory-Mac</t>
-  </si>
-  <si>
-    <t>MuSCs</t>
   </si>
 </sst>
 </file>
@@ -531,7 +531,7 @@
         <v>22</v>
       </c>
       <c r="D2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -540,10 +540,10 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.006530999999999999</v>
+        <v>0.08586166666666667</v>
       </c>
       <c r="H2">
-        <v>0.019593</v>
+        <v>0.257585</v>
       </c>
       <c r="I2">
         <v>1</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>3.187172</v>
+        <v>2.808848</v>
       </c>
       <c r="N2">
-        <v>9.561516000000001</v>
+        <v>8.426544</v>
       </c>
       <c r="O2">
-        <v>0.1363537060697748</v>
+        <v>0.1240735410877844</v>
       </c>
       <c r="P2">
-        <v>0.1419282855378281</v>
+        <v>0.1265382238946467</v>
       </c>
       <c r="Q2">
-        <v>0.020815420332</v>
+        <v>0.2411723706933333</v>
       </c>
       <c r="R2">
-        <v>0.187338782988</v>
+        <v>2.17055133624</v>
       </c>
       <c r="S2">
-        <v>0.1363537060697748</v>
+        <v>0.1240735410877844</v>
       </c>
       <c r="T2">
-        <v>0.1419282855378281</v>
+        <v>0.1265382238946467</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,7 +593,7 @@
         <v>22</v>
       </c>
       <c r="D3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E3">
         <v>1</v>
@@ -602,10 +602,10 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.006530999999999999</v>
+        <v>0.08586166666666667</v>
       </c>
       <c r="H3">
-        <v>0.019593</v>
+        <v>0.257585</v>
       </c>
       <c r="I3">
         <v>1</v>
@@ -626,22 +626,22 @@
         <v>24.005506</v>
       </c>
       <c r="O3">
-        <v>0.3423348043532233</v>
+        <v>0.3534602246216307</v>
       </c>
       <c r="P3">
-        <v>0.3563305557453488</v>
+        <v>0.3604816034820782</v>
       </c>
       <c r="Q3">
-        <v>0.052259986562</v>
+        <v>0.6870509181122223</v>
       </c>
       <c r="R3">
-        <v>0.470339879058</v>
+        <v>6.18345826301</v>
       </c>
       <c r="S3">
-        <v>0.3423348043532233</v>
+        <v>0.3534602246216307</v>
       </c>
       <c r="T3">
-        <v>0.3563305557453488</v>
+        <v>0.3604816034820782</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,7 +655,7 @@
         <v>22</v>
       </c>
       <c r="D4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E4">
         <v>1</v>
@@ -664,10 +664,10 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>0.006530999999999999</v>
+        <v>0.08586166666666667</v>
       </c>
       <c r="H4">
-        <v>0.019593</v>
+        <v>0.257585</v>
       </c>
       <c r="I4">
         <v>1</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>4.084306000000001</v>
+        <v>5.550351333333333</v>
       </c>
       <c r="N4">
-        <v>12.252918</v>
+        <v>16.651054</v>
       </c>
       <c r="O4">
-        <v>0.1747349248245835</v>
+        <v>0.2451723070126871</v>
       </c>
       <c r="P4">
-        <v>0.1818786523575961</v>
+        <v>0.2500425796309677</v>
       </c>
       <c r="Q4">
-        <v>0.026674602486</v>
+        <v>0.4765624160655555</v>
       </c>
       <c r="R4">
-        <v>0.240071422374</v>
+        <v>4.28906174459</v>
       </c>
       <c r="S4">
-        <v>0.1747349248245835</v>
+        <v>0.2451723070126871</v>
       </c>
       <c r="T4">
-        <v>0.1818786523575961</v>
+        <v>0.2500425796309677</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,7 +717,7 @@
         <v>22</v>
       </c>
       <c r="D5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E5">
         <v>1</v>
@@ -726,10 +726,10 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>0.006530999999999999</v>
+        <v>0.08586166666666667</v>
       </c>
       <c r="H5">
-        <v>0.019593</v>
+        <v>0.257585</v>
       </c>
       <c r="I5">
         <v>1</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>2.7542475</v>
+        <v>1.322847</v>
       </c>
       <c r="N5">
-        <v>5.508495</v>
+        <v>2.645694</v>
       </c>
       <c r="O5">
-        <v>0.1178323146847462</v>
+        <v>0.0584333191427063</v>
       </c>
       <c r="P5">
-        <v>0.0817664532741145</v>
+        <v>0.0397293860601361</v>
       </c>
       <c r="Q5">
-        <v>0.0179879904225</v>
+        <v>0.113581848165</v>
       </c>
       <c r="R5">
-        <v>0.107927942535</v>
+        <v>0.68149108899</v>
       </c>
       <c r="S5">
-        <v>0.1178323146847462</v>
+        <v>0.0584333191427063</v>
       </c>
       <c r="T5">
-        <v>0.0817664532741145</v>
+        <v>0.0397293860601361</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -779,7 +779,7 @@
         <v>22</v>
       </c>
       <c r="D6" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="E6">
         <v>1</v>
@@ -788,10 +788,10 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G6">
-        <v>0.006530999999999999</v>
+        <v>0.08586166666666667</v>
       </c>
       <c r="H6">
-        <v>0.019593</v>
+        <v>0.257585</v>
       </c>
       <c r="I6">
         <v>1</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>5.346736</v>
+        <v>4.954692000000001</v>
       </c>
       <c r="N6">
-        <v>16.040208</v>
+        <v>14.864076</v>
       </c>
       <c r="O6">
-        <v>0.2287442500676723</v>
+        <v>0.2188606081351916</v>
       </c>
       <c r="P6">
-        <v>0.2380960530851126</v>
+        <v>0.2232082069321711</v>
       </c>
       <c r="Q6">
-        <v>0.034919532816</v>
+        <v>0.42541811294</v>
       </c>
       <c r="R6">
-        <v>0.314275795344</v>
+        <v>3.82876301646</v>
       </c>
       <c r="S6">
-        <v>0.2287442500676723</v>
+        <v>0.2188606081351916</v>
       </c>
       <c r="T6">
-        <v>0.2380960530851126</v>
+        <v>0.2232082069321711</v>
       </c>
     </row>
   </sheetData>
